--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_28_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_28_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56738.18100018625</v>
+        <v>11277738.02633872</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56738.18100018625</v>
+        <v>11277738.02633872</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>226.934758518834</v>
+        <v>44636.71790575801</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>226.934758518834</v>
+        <v>44636.71790575801</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1113573575.624503</v>
+        <v>46768641.98834153</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10304.88714168359</v>
+        <v>1178431.575395418</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18917.73444729405</v>
+        <v>2091479.929636549</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27530.07670864581</v>
+        <v>3004528.283877681</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>36167.89949211909</v>
+        <v>3917585.285667543</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44805.53667806779</v>
+        <v>4830633.639908675</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53443.17386401648</v>
+        <v>5743681.994149806</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>62080.59930132439</v>
+        <v>6656730.348390934</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70718.1287555085</v>
+        <v>7569778.702632061</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>79355.86995833334</v>
+        <v>8482827.056873189</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87993.50714428202</v>
+        <v>9395875.411114316</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>96631.14433023069</v>
+        <v>10308923.76535545</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>105268.7815161794</v>
+        <v>11221972.11959659</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>113906.418702128</v>
+        <v>12135020.47383773</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>122556.6490602051</v>
+        <v>13039716.0736491</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>131224.7233439643</v>
+        <v>13946292.1037939</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>388</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>388</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,19 +27147,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
